--- a/data/snowballing/study_set_13.xlsx
+++ b/data/snowballing/study_set_13.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="915">
   <si>
     <t xml:space="preserve">record_id</t>
   </si>
@@ -1692,6 +1692,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://doi.org/10.1016/j.econmod.2017.05.011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dr</t>
   </si>
   <si>
     <t xml:space="preserve">Variable transformation for VECM,accumulated IRFs for variables in logs are excluded (fig.7)</t>
@@ -2909,11 +2912,11 @@
   </sheetPr>
   <dimension ref="A1:AG101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.84375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -7097,11 +7100,14 @@
       <c r="Y59" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="Z59" s="0" t="s">
+        <v>553</v>
+      </c>
       <c r="AD59" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AE59" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AF59" s="0" t="s">
         <v>45</v>
@@ -7115,13 +7121,13 @@
         <v>624</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E60" s="1" t="n">
         <v>2019</v>
@@ -7139,13 +7145,13 @@
         <v>37</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N60" s="1" t="n">
         <v>1</v>
@@ -7160,7 +7166,7 @@
         <v>0</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="S60" s="4" t="n">
         <v>45167</v>
@@ -7175,7 +7181,7 @@
         <v>0</v>
       </c>
       <c r="X60" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Y60" s="3" t="s">
         <v>44</v>
@@ -7186,19 +7192,19 @@
         <v>2138</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E61" s="1" t="n">
         <v>2016</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
@@ -7208,13 +7214,13 @@
         <v>37</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N61" s="1" t="n">
         <v>1</v>
@@ -7229,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="S61" s="4" t="n">
         <v>45167</v>
@@ -7244,7 +7250,7 @@
         <v>0</v>
       </c>
       <c r="X61" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Y61" s="3" t="s">
         <v>44</v>
@@ -7255,34 +7261,34 @@
         <v>9397</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E62" s="1" t="n">
         <v>2021</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>62</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N62" s="1" t="n">
         <v>1</v>
@@ -7297,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="S62" s="4" t="n">
         <v>45167</v>
@@ -7324,7 +7330,7 @@
         <v>1</v>
       </c>
       <c r="AE62" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AF62" s="0" t="s">
         <v>45</v>
@@ -7338,37 +7344,37 @@
         <v>1911</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E63" s="1" t="n">
         <v>2013</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>385</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N63" s="1" t="n">
         <v>1</v>
@@ -7383,7 +7389,7 @@
         <v>0</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="S63" s="4" t="n">
         <v>45167</v>
@@ -7398,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="X63" s="3" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="Y63" s="3" t="s">
         <v>44</v>
@@ -7415,13 +7421,13 @@
         <v>8615</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E64" s="1" t="n">
         <v>2020</v>
@@ -7436,16 +7442,16 @@
         <v>37</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="N64" s="1" t="n">
         <v>1</v>
@@ -7460,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="S64" s="4" t="n">
         <v>45167</v>
@@ -7487,19 +7493,19 @@
         <v>127</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E65" s="1" t="n">
         <v>2003</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>50</v>
@@ -7511,13 +7517,13 @@
         <v>37</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N65" s="1" t="n">
         <v>1</v>
@@ -7532,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="S65" s="4" t="n">
         <v>45167</v>
@@ -7558,19 +7564,19 @@
         <v>6487</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E66" s="1" t="n">
         <v>2022</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G66" s="0" t="n">
         <v>1</v>
@@ -7582,16 +7588,16 @@
         <v>37</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N66" s="1" t="n">
         <v>1</v>
@@ -7606,7 +7612,7 @@
         <v>0</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="S66" s="4" t="n">
         <v>45167</v>
@@ -7635,13 +7641,13 @@
         <v>6945</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E67" s="1" t="n">
         <v>2015</v>
@@ -7653,22 +7659,22 @@
         <v>94</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="N67" s="1" t="n">
         <v>0</v>
@@ -7692,7 +7698,7 @@
         <v>0</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="W67" s="0" t="n">
         <v>0</v>
@@ -7709,37 +7715,37 @@
         <v>2538</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E68" s="1" t="n">
         <v>2003</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>385</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="N68" s="1" t="n">
         <v>1</v>
@@ -7754,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="S68" s="4" t="n">
         <v>45167</v>
@@ -7769,7 +7775,7 @@
         <v>0</v>
       </c>
       <c r="X68" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="Y68" s="3" t="s">
         <v>44</v>
@@ -7780,38 +7786,38 @@
         <v>575</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E69" s="1" t="n">
         <v>2018</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="N69" s="1" t="n">
         <v>1</v>
@@ -7826,7 +7832,7 @@
         <v>0</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="S69" s="4" t="n">
         <v>45167</v>
@@ -7855,34 +7861,34 @@
         <v>757</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E70" s="1" t="n">
         <v>2019</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="N70" s="1" t="n">
         <v>1</v>
@@ -7897,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="S70" s="4" t="n">
         <v>45167</v>
@@ -7921,7 +7927,7 @@
         <v>1</v>
       </c>
       <c r="AF70" s="0" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AG70" s="0" t="n">
         <v>1</v>
@@ -7932,19 +7938,19 @@
         <v>1102</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E71" s="1" t="n">
         <v>2008</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G71" s="1" t="n">
         <v>2</v>
@@ -7956,13 +7962,13 @@
         <v>37</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="N71" s="1" t="n">
         <v>1</v>
@@ -7977,7 +7983,7 @@
         <v>0</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="S71" s="4" t="n">
         <v>45167</v>
@@ -8006,28 +8012,28 @@
         <v>7681</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E72" s="1" t="n">
         <v>2011</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>62</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N72" s="1" t="n">
         <v>1</v>
@@ -8042,7 +8048,7 @@
         <v>0</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="S72" s="4" t="n">
         <v>45167</v>
@@ -8071,13 +8077,13 @@
         <v>10695</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E73" s="1" t="n">
         <v>2004</v>
@@ -8086,16 +8092,16 @@
         <v>62</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="N73" s="1" t="n">
         <v>1</v>
@@ -8110,7 +8116,7 @@
         <v>0</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="S73" s="4" t="n">
         <v>45167</v>
@@ -8136,19 +8142,19 @@
         <v>10028</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E74" s="1" t="n">
         <v>2014</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>94</v>
@@ -8160,10 +8166,10 @@
         <v>37</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="N74" s="1" t="n">
         <v>1</v>
@@ -8178,7 +8184,7 @@
         <v>0</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="S74" s="4" t="n">
         <v>45167</v>
@@ -8207,13 +8213,13 @@
         <v>158</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E75" s="1" t="n">
         <v>2014</v>
@@ -8222,19 +8228,19 @@
         <v>440</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="N75" s="1" t="n">
         <v>1</v>
@@ -8249,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="S75" s="4" t="n">
         <v>45167</v>
@@ -8267,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="X75" s="0" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="Y75" s="3" t="s">
         <v>44</v>
@@ -8278,13 +8284,13 @@
         <v>1932</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E76" s="1" t="n">
         <v>2021</v>
@@ -8293,19 +8299,19 @@
         <v>440</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="N76" s="1" t="n">
         <v>0</v>
@@ -8329,7 +8335,7 @@
         <v>0</v>
       </c>
       <c r="V76" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="W76" s="0" t="n">
         <v>0</v>
@@ -8346,37 +8352,37 @@
         <v>1414</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E77" s="1" t="n">
         <v>2019</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N77" s="1" t="n">
         <v>1</v>
@@ -8391,7 +8397,7 @@
         <v>0</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="S77" s="4" t="n">
         <v>45167</v>
@@ -8417,19 +8423,19 @@
         <v>8505</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E78" s="1" t="n">
         <v>2019</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>72</v>
@@ -8441,16 +8447,16 @@
         <v>37</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="N78" s="1" t="n">
         <v>0</v>
@@ -8465,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="S78" s="4" t="n">
         <v>45167</v>
@@ -8494,37 +8500,37 @@
         <v>996</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E79" s="1" t="n">
         <v>1997</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="N79" s="1" t="n">
         <v>1</v>
@@ -8539,7 +8545,7 @@
         <v>0</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="S79" s="4" t="n">
         <v>45167</v>
@@ -8554,7 +8560,7 @@
         <v>0</v>
       </c>
       <c r="X79" s="0" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="Y79" s="3" t="s">
         <v>44</v>
@@ -8565,13 +8571,13 @@
         <v>4639</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E80" s="1" t="n">
         <v>2001</v>
@@ -8589,13 +8595,13 @@
         <v>37</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="N80" s="1" t="n">
         <v>1</v>
@@ -8610,7 +8616,7 @@
         <v>0</v>
       </c>
       <c r="R80" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="S80" s="4" t="n">
         <v>45183</v>
@@ -8628,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="X80" s="0" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="Y80" s="3" t="s">
         <v>44</v>
@@ -8639,19 +8645,19 @@
         <v>459</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E81" s="1" t="n">
         <v>2012</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="0" t="n">
@@ -8661,13 +8667,13 @@
         <v>37</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="N81" s="1" t="n">
         <v>1</v>
@@ -8682,7 +8688,7 @@
         <v>0</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="S81" s="4" t="n">
         <v>45167</v>
@@ -8697,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="X81" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="Y81" s="0" t="s">
         <v>44</v>
@@ -8708,13 +8714,13 @@
         <v>7858</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E82" s="1" t="n">
         <v>2006</v>
@@ -8723,28 +8729,28 @@
         <v>326</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="M82" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="N82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="N82" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O82" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P82" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R82" s="1" t="s">
-        <v>751</v>
       </c>
       <c r="S82" s="4" t="n">
         <v>45167</v>
@@ -8759,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="X82" s="5" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="Y82" s="3" t="s">
         <v>44</v>
@@ -8770,13 +8776,13 @@
         <v>10712</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E83" s="1" t="n">
         <v>2020</v>
@@ -8785,22 +8791,22 @@
         <v>395</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="N83" s="1" t="n">
         <v>1</v>
@@ -8815,7 +8821,7 @@
         <v>0</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="S83" s="4" t="n">
         <v>45167</v>
@@ -8833,7 +8839,7 @@
         <v>0</v>
       </c>
       <c r="X83" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>44</v>
@@ -8844,22 +8850,22 @@
         <v>853</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E84" s="1" t="n">
         <v>2014</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>50</v>
@@ -8868,13 +8874,13 @@
         <v>37</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="N84" s="1" t="n">
         <v>1</v>
@@ -8889,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="S84" s="4" t="n">
         <v>45167</v>
@@ -8915,40 +8921,40 @@
         <v>7766</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E85" s="1" t="n">
         <v>2019</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="N85" s="1" t="n">
         <v>1</v>
@@ -8963,7 +8969,7 @@
         <v>0</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="S85" s="4" t="n">
         <v>45167</v>
@@ -8989,40 +8995,40 @@
         <v>700</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E86" s="1" t="n">
         <v>2009</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="G86" s="1" t="n">
         <v>10</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="N86" s="1" t="n">
         <v>1</v>
@@ -9037,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="R86" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="S86" s="4" t="n">
         <v>45167</v>
@@ -9070,19 +9076,19 @@
         <v>9591</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>2001</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H87" s="0" t="n">
         <v>4</v>
@@ -9091,10 +9097,10 @@
         <v>37</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="N87" s="1" t="n">
         <v>1</v>
@@ -9109,7 +9115,7 @@
         <v>0</v>
       </c>
       <c r="R87" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="S87" s="4" t="n">
         <v>45167</v>
@@ -9139,52 +9145,52 @@
         <v>8767</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="E88" s="1" t="n">
         <v>2014</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="M88" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="N88" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" s="1" t="s">
         <v>806</v>
-      </c>
-      <c r="N88" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O88" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P88" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R88" s="1" t="s">
-        <v>805</v>
       </c>
       <c r="S88" s="4" t="n">
         <v>45167</v>
@@ -9199,7 +9205,7 @@
         <v>0</v>
       </c>
       <c r="X88" s="0" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="Y88" s="3" t="s">
         <v>44</v>
@@ -9210,37 +9216,37 @@
         <v>1620</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="E89" s="1" t="n">
         <v>2016</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G89" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="N89" s="1" t="n">
         <v>1</v>
@@ -9255,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="R89" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="S89" s="4" t="n">
         <v>45167</v>
@@ -9284,55 +9290,55 @@
         <v>9518</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E90" s="1" t="n">
         <v>2003</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>385</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="M90" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="N90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" s="1" t="s">
         <v>825</v>
-      </c>
-      <c r="N90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O90" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P90" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q90" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R90" s="1" t="s">
-        <v>824</v>
       </c>
       <c r="S90" s="4" t="n">
         <v>45167</v>
@@ -9347,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="X90" s="0" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="Y90" s="3" t="s">
         <v>44</v>
@@ -9358,19 +9364,19 @@
         <v>867</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E91" s="1" t="n">
         <v>2000</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>385</v>
@@ -9382,13 +9388,13 @@
         <v>37</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="N91" s="1" t="n">
         <v>0</v>
@@ -9426,13 +9432,13 @@
         <v>1074</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E92" s="1" t="n">
         <v>1994</v>
@@ -9441,13 +9447,13 @@
         <v>37</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="N92" s="1" t="n">
         <v>0</v>
@@ -9471,7 +9477,7 @@
         <v>0</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="W92" s="0" t="n">
         <v>0</v>
@@ -9488,13 +9494,13 @@
         <v>4643</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E93" s="1" t="n">
         <v>2004</v>
@@ -9503,13 +9509,13 @@
         <v>62</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="N93" s="1" t="n">
         <v>1</v>
@@ -9524,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="S93" s="4" t="n">
         <v>45167</v>
@@ -9550,13 +9556,13 @@
         <v>10606</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E94" s="1" t="n">
         <v>2009</v>
@@ -9565,10 +9571,10 @@
         <v>62</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="N94" s="1" t="n">
         <v>1</v>
@@ -9583,7 +9589,7 @@
         <v>0</v>
       </c>
       <c r="R94" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="S94" s="4" t="n">
         <v>45167</v>
@@ -9601,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="X94" s="0" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>44</v>
@@ -9612,13 +9618,13 @@
         <v>4539</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E95" s="1" t="n">
         <v>2012</v>
@@ -9627,13 +9633,13 @@
         <v>62</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="N95" s="1" t="n">
         <v>1</v>
@@ -9648,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="S95" s="4" t="n">
         <v>45167</v>
@@ -9678,13 +9684,13 @@
         <v>566</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="E96" s="1" t="n">
         <v>2021</v>
@@ -9693,22 +9699,22 @@
         <v>165</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="N96" s="1" t="n">
         <v>1</v>
@@ -9723,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="R96" s="0" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="S96" s="4" t="n">
         <v>45183</v>
@@ -9738,7 +9744,7 @@
         <v>0</v>
       </c>
       <c r="X96" s="0" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="Y96" s="3" t="s">
         <v>44</v>
@@ -9749,37 +9755,37 @@
         <v>3728</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E97" s="1" t="n">
         <v>2012</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="G97" s="1" t="n">
         <v>6</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="N97" s="1" t="n">
         <v>1</v>
@@ -9794,7 +9800,7 @@
         <v>0</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="S97" s="4" t="n">
         <v>45167</v>
@@ -9827,19 +9833,19 @@
         <v>9990</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="E98" s="1" t="n">
         <v>1999</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>93</v>
@@ -9851,16 +9857,16 @@
         <v>37</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="N98" s="1" t="n">
         <v>1</v>
@@ -9875,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="S98" s="4" t="n">
         <v>45167</v>
@@ -9890,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="X98" s="0" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="Y98" s="3" t="s">
         <v>44</v>
@@ -9901,19 +9907,19 @@
         <v>8512</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E99" s="1" t="n">
         <v>2021</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>385</v>
@@ -9925,16 +9931,16 @@
         <v>37</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="N99" s="1" t="n">
         <v>1</v>
@@ -9949,7 +9955,7 @@
         <v>0</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="S99" s="4" t="n">
         <v>45167</v>
@@ -9975,19 +9981,19 @@
         <v>4475</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E100" s="1" t="n">
         <v>2010</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="G100" s="1" t="n">
         <v>10</v>
@@ -9999,13 +10005,13 @@
         <v>37</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="N100" s="1" t="n">
         <v>1</v>
@@ -10020,7 +10026,7 @@
         <v>0</v>
       </c>
       <c r="R100" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="S100" s="4" t="n">
         <v>45167</v>
@@ -10032,13 +10038,13 @@
         <v>0</v>
       </c>
       <c r="V100" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="W100" s="0" t="n">
         <v>1</v>
       </c>
       <c r="X100" s="0" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="Y100" s="3" t="s">
         <v>44</v>
@@ -10055,19 +10061,19 @@
         <v>6372</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E101" s="1" t="n">
         <v>2012</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>93</v>
@@ -10076,10 +10082,10 @@
         <v>37</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="N101" s="1" t="n">
         <v>0</v>
